--- a/escolas/imaculada conceicao/9D.xlsx
+++ b/escolas/imaculada conceicao/9D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\escolas\imaculada conceicao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\imaculada conceicao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65735F2-7508-43C7-915B-DEDEB5B5152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62ADB6-4056-404B-A145-5EEA90B4F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -549,14 +549,14 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -859,7 +859,9 @@
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="9">
+        <v>5543999265005</v>
+      </c>
       <c r="C29" s="4"/>
     </row>
   </sheetData>
